--- a/Database/Italy_2016_SUT.xlsx
+++ b/Database/Italy_2016_SUT.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID2030\Database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD95DA5F-6ED1-4881-B5E6-730B169FCC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="SUT" sheetId="1" r:id="rId1"/>
@@ -614,7 +608,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0#############E+###"/>
     <numFmt numFmtId="165" formatCode="0;\-;\-"/>
@@ -682,7 +676,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,7 +697,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -745,7 +739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -778,26 +772,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -830,23 +807,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1022,76 +982,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ER157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A144" sqref="A144"/>
+      <selection pane="bottomRight" activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="40" width="9" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="49" width="9" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="51" max="59" width="9" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="9" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="63" max="64" width="9" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="66" max="67" width="10" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="73" max="74" width="10" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="12" bestFit="1" customWidth="1"/>
-    <col min="77" max="89" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="77" max="89" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="12" bestFit="1" customWidth="1"/>
-    <col min="91" max="95" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="91" max="95" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="10" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="12" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="100" max="101" width="12" bestFit="1" customWidth="1"/>
-    <col min="102" max="105" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="102" max="105" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="10" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="12" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="10" bestFit="1" customWidth="1"/>
-    <col min="109" max="115" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="109" max="115" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="12" bestFit="1" customWidth="1"/>
-    <col min="117" max="122" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="117" max="122" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="10" bestFit="1" customWidth="1"/>
-    <col min="124" max="125" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="12" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="12" bestFit="1" customWidth="1"/>
-    <col min="129" max="132" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="129" max="132" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="10" bestFit="1" customWidth="1"/>
-    <col min="134" max="135" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="134" max="135" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1503,7 +1463,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="str">
         <v>Sectors</v>
@@ -1911,7 +1871,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="E3" s="1" t="str">
         <v>Macro Sectors</v>
@@ -2319,7 +2279,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2730,7 +2690,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3132,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:139" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>166</v>
       </c>
@@ -3149,7 +3109,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3565,7 +3525,7 @@
         <v>5726.1</v>
       </c>
     </row>
-    <row r="8" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -3981,7 +3941,7 @@
         <v>113.3</v>
       </c>
     </row>
-    <row r="9" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -4397,7 +4357,7 @@
         <v>224.9</v>
       </c>
     </row>
-    <row r="10" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -4813,7 +4773,7 @@
         <v>957.1</v>
       </c>
     </row>
-    <row r="11" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -5229,7 +5189,7 @@
         <v>31006.400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -5645,7 +5605,7 @@
         <v>44034.5</v>
       </c>
     </row>
-    <row r="13" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -6061,7 +6021,7 @@
         <v>1693.2</v>
       </c>
     </row>
-    <row r="14" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -6477,7 +6437,7 @@
         <v>6530.8</v>
       </c>
     </row>
-    <row r="15" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -6893,7 +6853,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="16" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
@@ -7309,7 +7269,7 @@
         <v>10941.2</v>
       </c>
     </row>
-    <row r="17" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -7725,7 +7685,7 @@
         <v>25747.7</v>
       </c>
     </row>
-    <row r="18" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -8141,7 +8101,7 @@
         <v>15429.6</v>
       </c>
     </row>
-    <row r="19" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -8557,7 +8517,7 @@
         <v>14867.8</v>
       </c>
     </row>
-    <row r="20" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -8973,7 +8933,7 @@
         <v>9753.1</v>
       </c>
     </row>
-    <row r="21" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
@@ -9389,7 +9349,7 @@
         <v>23130</v>
       </c>
     </row>
-    <row r="22" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -9805,7 +9765,7 @@
         <v>18265.3</v>
       </c>
     </row>
-    <row r="23" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -10221,7 +10181,7 @@
         <v>12907.8</v>
       </c>
     </row>
-    <row r="24" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -10637,7 +10597,7 @@
         <v>21676</v>
       </c>
     </row>
-    <row r="25" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
@@ -11053,7 +11013,7 @@
         <v>75279.199999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -11469,7 +11429,7 @@
         <v>29850.9</v>
       </c>
     </row>
-    <row r="27" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -11885,7 +11845,7 @@
         <v>13218.1</v>
       </c>
     </row>
-    <row r="28" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
@@ -12301,7 +12261,7 @@
         <v>23116.5</v>
       </c>
     </row>
-    <row r="29" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -12717,7 +12677,7 @@
         <v>256.5</v>
       </c>
     </row>
-    <row r="30" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -13133,7 +13093,7 @@
         <v>351.4</v>
       </c>
     </row>
-    <row r="31" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -13549,7 +13509,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="32" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -13965,7 +13925,7 @@
         <v>1269.4000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -14381,7 +14341,7 @@
         <v>421.9</v>
       </c>
     </row>
-    <row r="34" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
@@ -14797,7 +14757,7 @@
         <v>4905.3999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -15213,7 +15173,7 @@
         <v>9515.1</v>
       </c>
     </row>
-    <row r="36" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -15629,7 +15589,7 @@
         <v>7047.4</v>
       </c>
     </row>
-    <row r="37" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -16045,7 +16005,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="38" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -16461,7 +16421,7 @@
         <v>2373.4</v>
       </c>
     </row>
-    <row r="39" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
@@ -16877,7 +16837,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="40" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
@@ -17293,7 +17253,7 @@
         <v>7107</v>
       </c>
     </row>
-    <row r="41" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
@@ -17709,7 +17669,7 @@
         <v>608.5</v>
       </c>
     </row>
-    <row r="42" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -18125,7 +18085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -18541,7 +18501,7 @@
         <v>1400.1</v>
       </c>
     </row>
-    <row r="44" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -18957,7 +18917,7 @@
         <v>939.4</v>
       </c>
     </row>
-    <row r="45" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
@@ -19373,7 +19333,7 @@
         <v>3435.8</v>
       </c>
     </row>
-    <row r="46" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
@@ -19789,7 +19749,7 @@
         <v>3234.1</v>
       </c>
     </row>
-    <row r="47" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
@@ -20205,7 +20165,7 @@
         <v>2904.9</v>
       </c>
     </row>
-    <row r="48" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -20621,7 +20581,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="49" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>4</v>
       </c>
@@ -21037,7 +20997,7 @@
         <v>2656.2</v>
       </c>
     </row>
-    <row r="50" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>4</v>
       </c>
@@ -21453,7 +21413,7 @@
         <v>938.7</v>
       </c>
     </row>
-    <row r="51" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -21869,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
@@ -22285,7 +22245,7 @@
         <v>2522.8000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
@@ -22701,7 +22661,7 @@
         <v>2341.1</v>
       </c>
     </row>
-    <row r="54" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>4</v>
       </c>
@@ -23117,7 +23077,7 @@
         <v>3019.6</v>
       </c>
     </row>
-    <row r="55" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>4</v>
       </c>
@@ -23533,7 +23493,7 @@
         <v>1557.5</v>
       </c>
     </row>
-    <row r="56" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>4</v>
       </c>
@@ -23949,7 +23909,7 @@
         <v>2447.8000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>4</v>
       </c>
@@ -24365,7 +24325,7 @@
         <v>3463.4</v>
       </c>
     </row>
-    <row r="58" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>4</v>
       </c>
@@ -24781,7 +24741,7 @@
         <v>792.4</v>
       </c>
     </row>
-    <row r="59" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>4</v>
       </c>
@@ -25197,7 +25157,7 @@
         <v>924.5</v>
       </c>
     </row>
-    <row r="60" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>4</v>
       </c>
@@ -25613,7 +25573,7 @@
         <v>3404.1</v>
       </c>
     </row>
-    <row r="61" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>4</v>
       </c>
@@ -26029,7 +25989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>4</v>
       </c>
@@ -26445,7 +26405,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>4</v>
       </c>
@@ -26861,7 +26821,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="64" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -27277,7 +27237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -27693,7 +27653,7 @@
         <v>346.6</v>
       </c>
     </row>
-    <row r="66" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>4</v>
       </c>
@@ -28109,7 +28069,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
@@ -28525,7 +28485,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>4</v>
       </c>
@@ -28941,7 +28901,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>4</v>
       </c>
@@ -29357,7 +29317,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -29773,7 +29733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -30189,7 +30149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>0</v>
       </c>
@@ -30605,7 +30565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
@@ -31021,7 +30981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>5</v>
       </c>
@@ -31437,7 +31397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>5</v>
       </c>
@@ -31853,7 +31813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -32269,7 +32229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>5</v>
       </c>
@@ -32685,7 +32645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -33101,7 +33061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>5</v>
       </c>
@@ -33517,7 +33477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>5</v>
       </c>
@@ -33933,7 +33893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>5</v>
       </c>
@@ -34349,7 +34309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>5</v>
       </c>
@@ -34765,7 +34725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>5</v>
       </c>
@@ -35181,7 +35141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>5</v>
       </c>
@@ -35597,7 +35557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>5</v>
       </c>
@@ -36013,7 +35973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>5</v>
       </c>
@@ -36429,7 +36389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>5</v>
       </c>
@@ -36845,7 +36805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>5</v>
       </c>
@@ -37261,7 +37221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>5</v>
       </c>
@@ -37677,7 +37637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
@@ -38093,7 +38053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -38509,7 +38469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>5</v>
       </c>
@@ -38925,7 +38885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>5</v>
       </c>
@@ -39341,7 +39301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -39757,7 +39717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>5</v>
       </c>
@@ -40173,7 +40133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>5</v>
       </c>
@@ -40589,7 +40549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
@@ -41005,7 +40965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>5</v>
       </c>
@@ -41421,7 +41381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>5</v>
       </c>
@@ -41837,7 +41797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>5</v>
       </c>
@@ -42253,7 +42213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>5</v>
       </c>
@@ -42669,7 +42629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>5</v>
       </c>
@@ -43085,7 +43045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>5</v>
       </c>
@@ -43501,7 +43461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>5</v>
       </c>
@@ -43917,7 +43877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>5</v>
       </c>
@@ -44333,7 +44293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>5</v>
       </c>
@@ -44749,7 +44709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>5</v>
       </c>
@@ -45165,7 +45125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>5</v>
       </c>
@@ -45581,7 +45541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>5</v>
       </c>
@@ -45997,7 +45957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>5</v>
       </c>
@@ -46413,7 +46373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>5</v>
       </c>
@@ -46829,7 +46789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>5</v>
       </c>
@@ -47245,7 +47205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>5</v>
       </c>
@@ -47661,7 +47621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>5</v>
       </c>
@@ -48077,7 +48037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>5</v>
       </c>
@@ -48493,7 +48453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>5</v>
       </c>
@@ -48909,7 +48869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>5</v>
       </c>
@@ -49325,7 +49285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>5</v>
       </c>
@@ -49741,7 +49701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>5</v>
       </c>
@@ -50157,7 +50117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>5</v>
       </c>
@@ -50573,7 +50533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>5</v>
       </c>
@@ -50989,7 +50949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>5</v>
       </c>
@@ -51405,7 +51365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>5</v>
       </c>
@@ -51821,7 +51781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>5</v>
       </c>
@@ -52237,7 +52197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>5</v>
       </c>
@@ -52653,7 +52613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>5</v>
       </c>
@@ -53069,7 +53029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>5</v>
       </c>
@@ -53485,7 +53445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>5</v>
       </c>
@@ -53901,7 +53861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>5</v>
       </c>
@@ -54317,7 +54277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>5</v>
       </c>
@@ -54733,7 +54693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>5</v>
       </c>
@@ -55149,7 +55109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>5</v>
       </c>
@@ -55565,7 +55525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>5</v>
       </c>
@@ -55981,7 +55941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>5</v>
       </c>
@@ -56397,7 +56357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>5</v>
       </c>
@@ -56813,7 +56773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>5</v>
       </c>
@@ -57229,7 +57189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>5</v>
       </c>
@@ -57645,7 +57605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>173</v>
       </c>
@@ -58061,7 +58021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>173</v>
       </c>
@@ -58477,7 +58437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>173</v>
       </c>
@@ -58893,7 +58853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>173</v>
       </c>
@@ -59309,7 +59269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>173</v>
       </c>
@@ -59725,7 +59685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:139" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>2</v>
       </c>
@@ -60141,7 +60101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:139" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>164</v>
       </c>
@@ -60558,7 +60518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>164</v>
       </c>
@@ -60975,7 +60935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>164</v>
       </c>
@@ -61392,7 +61352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>164</v>
       </c>
@@ -61809,7 +61769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>164</v>
       </c>
@@ -62226,7 +62186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>164</v>
       </c>
@@ -62643,7 +62603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>164</v>
       </c>
@@ -63060,7 +63020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>164</v>
       </c>
@@ -63477,7 +63437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>164</v>
       </c>
@@ -63894,7 +63854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>164</v>
       </c>
@@ -64311,7 +64271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>164</v>
       </c>
@@ -64728,7 +64688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -64873,7 +64833,7 @@
       <c r="EQ155" s="4"/>
       <c r="ER155" s="4"/>
     </row>
-    <row r="156" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -65018,7 +64978,7 @@
       <c r="EQ156" s="4"/>
       <c r="ER156" s="4"/>
     </row>
-    <row r="157" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -65164,7 +65124,7 @@
       <c r="ER157" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:D143" xr:uid="{12D394F5-05BD-40D2-B24B-C6B9DB90E7B7}"/>
+  <autoFilter ref="B7:D143"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Database/Italy_2016_SUT.xlsx
+++ b/Database/Italy_2016_SUT.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-19_impact_on_Italian_GDP\Database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A1202C-22C7-4EAC-95F8-8E8F3507D93E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUT" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="201">
   <si>
     <t>Margins</t>
   </si>
@@ -569,12 +575,6 @@
     <t>GDP</t>
   </si>
   <si>
-    <t>Other sectors</t>
-  </si>
-  <si>
-    <t>Mining &amp; quarrying</t>
-  </si>
-  <si>
     <t>Food, beverages &amp; tobacco</t>
   </si>
   <si>
@@ -596,19 +596,52 @@
     <t>Metals</t>
   </si>
   <si>
-    <t>Other industry</t>
-  </si>
-  <si>
     <t>Machinery</t>
   </si>
   <si>
     <t>Transport equipment</t>
   </si>
+  <si>
+    <t>Agriculture &amp; fishing</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>High-tech</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Wholesale &amp; retail</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Finance &amp; Consultancy</t>
+  </si>
+  <si>
+    <t>Research &amp; Education</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0#############E+###"/>
     <numFmt numFmtId="165" formatCode="0;\-;\-"/>
@@ -676,7 +709,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,7 +730,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,7 +772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,9 +805,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,6 +857,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -982,76 +1049,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ER157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M77" sqref="M77"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="40" width="9" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="49" width="9" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="51" max="59" width="9" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="9" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="63" max="64" width="9" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="66" max="67" width="10" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="73" max="74" width="10" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="12" bestFit="1" customWidth="1"/>
-    <col min="77" max="89" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="89" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="12" bestFit="1" customWidth="1"/>
-    <col min="91" max="95" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="95" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="10" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="12" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="100" max="101" width="12" bestFit="1" customWidth="1"/>
-    <col min="102" max="105" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="102" max="105" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="10" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="12" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="10" bestFit="1" customWidth="1"/>
-    <col min="109" max="115" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="115" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="12" bestFit="1" customWidth="1"/>
-    <col min="117" max="122" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="117" max="122" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="10" bestFit="1" customWidth="1"/>
-    <col min="124" max="125" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="12" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="12" bestFit="1" customWidth="1"/>
-    <col min="129" max="132" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="129" max="132" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="10" bestFit="1" customWidth="1"/>
-    <col min="134" max="135" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="134" max="135" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1463,7 +1530,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:139" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="str">
         <v>Sectors</v>
@@ -1871,7 +1938,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="E3" s="1" t="str">
         <v>Macro Sectors</v>
@@ -2075,16 +2142,16 @@
         <v>Margins</v>
       </c>
       <c r="BT3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Agriculture &amp; fishing</v>
       </c>
       <c r="BU3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Agriculture &amp; fishing</v>
       </c>
       <c r="BV3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Agriculture &amp; fishing</v>
       </c>
       <c r="BW3" s="1" t="str">
-        <v>Mining &amp; quarrying</v>
+        <v>Mining</v>
       </c>
       <c r="BX3" s="1" t="str">
         <v>Food, beverages &amp; tobacco</v>
@@ -2123,10 +2190,10 @@
         <v>Metals</v>
       </c>
       <c r="CJ3" s="1" t="str">
-        <v>Other industry</v>
+        <v>High-tech</v>
       </c>
       <c r="CK3" s="1" t="str">
-        <v>Other industry</v>
+        <v>High-tech</v>
       </c>
       <c r="CL3" s="1" t="str">
         <v>Machinery</v>
@@ -2138,136 +2205,136 @@
         <v>Transport equipment</v>
       </c>
       <c r="CO3" s="1" t="str">
-        <v>Other industry</v>
+        <v>Other</v>
       </c>
       <c r="CP3" s="1" t="str">
-        <v>Other industry</v>
+        <v>High-tech</v>
       </c>
       <c r="CQ3" s="1" t="str">
-        <v>Other industry</v>
+        <v>Utilities</v>
       </c>
       <c r="CR3" s="1" t="str">
-        <v>Other industry</v>
+        <v>Utilities</v>
       </c>
       <c r="CS3" s="1" t="str">
-        <v>Other industry</v>
+        <v>Utilities</v>
       </c>
       <c r="CT3" s="1" t="str">
         <v>Construction</v>
       </c>
       <c r="CU3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Wholesale &amp; retail</v>
       </c>
       <c r="CV3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Wholesale &amp; retail</v>
       </c>
       <c r="CW3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Wholesale &amp; retail</v>
       </c>
       <c r="CX3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Transport</v>
       </c>
       <c r="CY3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Transport</v>
       </c>
       <c r="CZ3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Transport</v>
       </c>
       <c r="DA3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Transport</v>
       </c>
       <c r="DB3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Transport</v>
       </c>
       <c r="DC3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="DD3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="DE3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="DF3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>IT</v>
       </c>
       <c r="DG3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>IT</v>
       </c>
       <c r="DH3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DI3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DJ3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DK3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DL3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DM3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DN3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Research &amp; Education</v>
       </c>
       <c r="DO3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Research &amp; Education</v>
       </c>
       <c r="DP3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Research &amp; Education</v>
       </c>
       <c r="DQ3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Research &amp; Education</v>
       </c>
       <c r="DR3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="DS3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="DT3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="DU3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DV3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="DW3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Research &amp; Education</v>
       </c>
       <c r="DX3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Health</v>
       </c>
       <c r="DY3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Health</v>
       </c>
       <c r="DZ3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="EA3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="EB3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="EC3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>IT</v>
       </c>
       <c r="ED3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="EE3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="EF3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="EG3" s="1" t="s">
         <v>175</v>
@@ -2279,7 +2346,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2690,7 +2757,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3092,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>166</v>
       </c>
@@ -3109,14 +3176,14 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3525,14 +3592,14 @@
         <v>5726.1</v>
       </c>
     </row>
-    <row r="8" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3941,14 +4008,14 @@
         <v>113.3</v>
       </c>
     </row>
-    <row r="9" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -4357,14 +4424,14 @@
         <v>224.9</v>
       </c>
     </row>
-    <row r="10" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -4773,14 +4840,14 @@
         <v>957.1</v>
       </c>
     </row>
-    <row r="11" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5189,14 +5256,14 @@
         <v>31006.400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -5605,14 +5672,14 @@
         <v>44034.5</v>
       </c>
     </row>
-    <row r="13" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -6021,14 +6088,14 @@
         <v>1693.2</v>
       </c>
     </row>
-    <row r="14" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -6437,14 +6504,14 @@
         <v>6530.8</v>
       </c>
     </row>
-    <row r="15" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6853,14 +6920,14 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="16" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -7269,14 +7336,14 @@
         <v>10941.2</v>
       </c>
     </row>
-    <row r="17" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -7685,14 +7752,14 @@
         <v>25747.7</v>
       </c>
     </row>
-    <row r="18" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -8101,14 +8168,14 @@
         <v>15429.6</v>
       </c>
     </row>
-    <row r="19" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -8517,14 +8584,14 @@
         <v>14867.8</v>
       </c>
     </row>
-    <row r="20" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -8933,14 +9000,14 @@
         <v>9753.1</v>
       </c>
     </row>
-    <row r="21" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -9349,14 +9416,14 @@
         <v>23130</v>
       </c>
     </row>
-    <row r="22" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -9765,14 +9832,14 @@
         <v>18265.3</v>
       </c>
     </row>
-    <row r="23" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -10181,14 +10248,14 @@
         <v>12907.8</v>
       </c>
     </row>
-    <row r="24" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -10597,14 +10664,14 @@
         <v>21676</v>
       </c>
     </row>
-    <row r="25" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -11013,14 +11080,14 @@
         <v>75279.199999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -11429,14 +11496,14 @@
         <v>29850.9</v>
       </c>
     </row>
-    <row r="27" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -11845,14 +11912,14 @@
         <v>13218.1</v>
       </c>
     </row>
-    <row r="28" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -12261,14 +12328,14 @@
         <v>23116.5</v>
       </c>
     </row>
-    <row r="29" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -12677,14 +12744,14 @@
         <v>256.5</v>
       </c>
     </row>
-    <row r="30" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -13093,14 +13160,14 @@
         <v>351.4</v>
       </c>
     </row>
-    <row r="31" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -13509,14 +13576,14 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="32" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -13925,14 +13992,14 @@
         <v>1269.4000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -14341,14 +14408,14 @@
         <v>421.9</v>
       </c>
     </row>
-    <row r="34" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -14757,14 +14824,14 @@
         <v>4905.3999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -15173,14 +15240,14 @@
         <v>9515.1</v>
       </c>
     </row>
-    <row r="36" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -15589,14 +15656,14 @@
         <v>7047.4</v>
       </c>
     </row>
-    <row r="37" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -16005,14 +16072,14 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="38" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -16421,14 +16488,14 @@
         <v>2373.4</v>
       </c>
     </row>
-    <row r="39" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -16837,14 +16904,14 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="40" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -17253,14 +17320,14 @@
         <v>7107</v>
       </c>
     </row>
-    <row r="41" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -17669,14 +17736,14 @@
         <v>608.5</v>
       </c>
     </row>
-    <row r="42" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -18085,14 +18152,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -18501,14 +18568,14 @@
         <v>1400.1</v>
       </c>
     </row>
-    <row r="44" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -18917,14 +18984,14 @@
         <v>939.4</v>
       </c>
     </row>
-    <row r="45" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -19333,14 +19400,14 @@
         <v>3435.8</v>
       </c>
     </row>
-    <row r="46" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -19749,14 +19816,14 @@
         <v>3234.1</v>
       </c>
     </row>
-    <row r="47" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -20165,14 +20232,14 @@
         <v>2904.9</v>
       </c>
     </row>
-    <row r="48" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -20581,14 +20648,14 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="49" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -20997,14 +21064,14 @@
         <v>2656.2</v>
       </c>
     </row>
-    <row r="50" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -21413,14 +21480,14 @@
         <v>938.7</v>
       </c>
     </row>
-    <row r="51" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -21829,14 +21896,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -22245,14 +22312,14 @@
         <v>2522.8000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -22661,14 +22728,14 @@
         <v>2341.1</v>
       </c>
     </row>
-    <row r="54" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -23077,14 +23144,14 @@
         <v>3019.6</v>
       </c>
     </row>
-    <row r="55" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -23493,14 +23560,14 @@
         <v>1557.5</v>
       </c>
     </row>
-    <row r="56" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -23909,14 +23976,14 @@
         <v>2447.8000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -24325,14 +24392,14 @@
         <v>3463.4</v>
       </c>
     </row>
-    <row r="58" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -24741,14 +24808,14 @@
         <v>792.4</v>
       </c>
     </row>
-    <row r="59" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -25157,14 +25224,14 @@
         <v>924.5</v>
       </c>
     </row>
-    <row r="60" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -25573,14 +25640,14 @@
         <v>3404.1</v>
       </c>
     </row>
-    <row r="61" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -25989,14 +26056,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -26405,14 +26472,14 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -26821,14 +26888,14 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="64" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -27237,14 +27304,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -27653,14 +27720,14 @@
         <v>346.6</v>
       </c>
     </row>
-    <row r="66" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -28069,14 +28136,14 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -28485,14 +28552,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -28901,14 +28968,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -29317,14 +29384,14 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -29733,14 +29800,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -30149,14 +30216,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -30565,15 +30632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>180</v>
+      <c r="C73" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>171</v>
@@ -30981,15 +31048,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>180</v>
+      <c r="C74" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>171</v>
@@ -31397,15 +31464,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>180</v>
+      <c r="C75" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>171</v>
@@ -31813,15 +31880,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>181</v>
+      <c r="C76" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>171</v>
@@ -32229,15 +32296,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>182</v>
+      <c r="C77" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>171</v>
@@ -32645,15 +32712,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>183</v>
+      <c r="C78" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>171</v>
@@ -33061,15 +33128,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>184</v>
+      <c r="C79" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>171</v>
@@ -33477,15 +33544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>185</v>
+      <c r="C80" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>171</v>
@@ -33893,15 +33960,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>185</v>
+      <c r="C81" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>171</v>
@@ -34309,15 +34376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>186</v>
+      <c r="C82" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>171</v>
@@ -34725,15 +34792,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>186</v>
+      <c r="C83" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>171</v>
@@ -35141,15 +35208,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>186</v>
+      <c r="C84" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>171</v>
@@ -35557,15 +35624,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>187</v>
+      <c r="C85" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>171</v>
@@ -35973,15 +36040,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>187</v>
+      <c r="C86" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>171</v>
@@ -36389,15 +36456,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>188</v>
+      <c r="C87" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>171</v>
@@ -36805,15 +36872,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>188</v>
+      <c r="C88" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>171</v>
@@ -37221,15 +37288,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>189</v>
+      <c r="C89" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>171</v>
@@ -37637,15 +37704,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>189</v>
+      <c r="C90" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>171</v>
@@ -38053,15 +38120,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>190</v>
+      <c r="C91" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>171</v>
@@ -38469,15 +38536,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>191</v>
+      <c r="C92" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>171</v>
@@ -38885,15 +38952,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>191</v>
+      <c r="C93" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>171</v>
@@ -39301,15 +39368,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>189</v>
+      <c r="C94" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>171</v>
@@ -39717,15 +39784,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>189</v>
+      <c r="C95" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>171</v>
@@ -40133,15 +40200,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>189</v>
+      <c r="C96" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>171</v>
@@ -40549,15 +40616,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>189</v>
+      <c r="C97" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>171</v>
@@ -40965,15 +41032,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>189</v>
+      <c r="C98" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>171</v>
@@ -41381,14 +41448,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -41797,15 +41864,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>180</v>
+      <c r="C100" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>171</v>
@@ -42213,15 +42280,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>180</v>
+      <c r="C101" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>171</v>
@@ -42629,15 +42696,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>180</v>
+      <c r="C102" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>171</v>
@@ -43045,15 +43112,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>180</v>
+      <c r="C103" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>171</v>
@@ -43461,15 +43528,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>180</v>
+      <c r="C104" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>171</v>
@@ -43877,15 +43944,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>180</v>
+      <c r="C105" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>171</v>
@@ -44293,15 +44360,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>180</v>
+      <c r="C106" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>171</v>
@@ -44709,15 +44776,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>180</v>
+      <c r="C107" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>171</v>
@@ -45125,15 +45192,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>180</v>
+      <c r="C108" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>171</v>
@@ -45541,15 +45608,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>180</v>
+      <c r="C109" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>171</v>
@@ -45957,15 +46024,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>180</v>
+      <c r="C110" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>171</v>
@@ -46373,15 +46440,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>180</v>
+      <c r="C111" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>171</v>
@@ -46789,15 +46856,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>180</v>
+      <c r="C112" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>171</v>
@@ -47205,15 +47272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>180</v>
+      <c r="C113" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>171</v>
@@ -47621,15 +47688,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>180</v>
+      <c r="C114" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>171</v>
@@ -48037,15 +48104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>180</v>
+      <c r="C115" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>171</v>
@@ -48453,15 +48520,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>180</v>
+      <c r="C116" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>171</v>
@@ -48869,15 +48936,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>180</v>
+      <c r="C117" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>171</v>
@@ -49285,15 +49352,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>180</v>
+      <c r="C118" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>171</v>
@@ -49701,15 +49768,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>180</v>
+      <c r="C119" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>171</v>
@@ -50117,15 +50184,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>180</v>
+      <c r="C120" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>171</v>
@@ -50533,15 +50600,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>180</v>
+      <c r="C121" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>171</v>
@@ -50949,15 +51016,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>180</v>
+      <c r="C122" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>171</v>
@@ -51365,15 +51432,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>180</v>
+      <c r="C123" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>171</v>
@@ -51781,15 +51848,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>180</v>
+      <c r="C124" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>171</v>
@@ -52197,15 +52264,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>180</v>
+      <c r="C125" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>171</v>
@@ -52613,15 +52680,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>180</v>
+      <c r="C126" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>171</v>
@@ -53029,15 +53096,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>180</v>
+      <c r="C127" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>171</v>
@@ -53445,15 +53512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>180</v>
+      <c r="C128" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>171</v>
@@ -53861,15 +53928,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>180</v>
+      <c r="C129" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>171</v>
@@ -54277,15 +54344,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>180</v>
+      <c r="C130" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>171</v>
@@ -54693,15 +54760,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>180</v>
+      <c r="C131" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>171</v>
@@ -55109,15 +55176,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>180</v>
+      <c r="C132" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>171</v>
@@ -55525,15 +55592,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>180</v>
+      <c r="C133" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>171</v>
@@ -55941,15 +56008,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>180</v>
+      <c r="C134" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>171</v>
@@ -56357,15 +56424,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>180</v>
+      <c r="C135" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>171</v>
@@ -56773,15 +56840,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>180</v>
+      <c r="C136" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>171</v>
@@ -57189,15 +57256,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>180</v>
+      <c r="C137" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>171</v>
@@ -57605,7 +57672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>173</v>
       </c>
@@ -58021,7 +58088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>173</v>
       </c>
@@ -58437,7 +58504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>173</v>
       </c>
@@ -58853,7 +58920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>173</v>
       </c>
@@ -59269,7 +59336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>173</v>
       </c>
@@ -59685,7 +59752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:139" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>2</v>
       </c>
@@ -60101,7 +60168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>164</v>
       </c>
@@ -60518,7 +60585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>164</v>
       </c>
@@ -60935,7 +61002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>164</v>
       </c>
@@ -61352,7 +61419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>164</v>
       </c>
@@ -61769,7 +61836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>164</v>
       </c>
@@ -62186,7 +62253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>164</v>
       </c>
@@ -62603,7 +62670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>164</v>
       </c>
@@ -63020,7 +63087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>164</v>
       </c>
@@ -63437,7 +63504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
         <v>164</v>
       </c>
@@ -63854,7 +63921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>164</v>
       </c>
@@ -64271,7 +64338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>164</v>
       </c>
@@ -64688,7 +64755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:148" x14ac:dyDescent="0.3">
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -64833,7 +64900,7 @@
       <c r="EQ155" s="4"/>
       <c r="ER155" s="4"/>
     </row>
-    <row r="156" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:148" x14ac:dyDescent="0.3">
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -64978,7 +65045,7 @@
       <c r="EQ156" s="4"/>
       <c r="ER156" s="4"/>
     </row>
-    <row r="157" spans="1:148" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:148" x14ac:dyDescent="0.3">
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -65124,7 +65191,7 @@
       <c r="ER157" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:D143"/>
+  <autoFilter ref="B7:D143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Database/Italy_2016_SUT.xlsx
+++ b/Database/Italy_2016_SUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-19_impact_on_Italian_GDP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A1202C-22C7-4EAC-95F8-8E8F3507D93E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2471F6E-05B8-4DE2-AC36-55523AB89EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,7 +1056,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Database/Italy_2016_SUT.xlsx
+++ b/Database/Italy_2016_SUT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-19_impact_on_Italian_GDP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2471F6E-05B8-4DE2-AC36-55523AB89EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479CCD2E-9056-4C95-80AB-A1806BC14670}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="203">
   <si>
     <t>Margins</t>
-  </si>
-  <si>
-    <t>service</t>
   </si>
   <si>
     <t>Import</t>
@@ -521,16 +518,7 @@
     <t>Gross Capital formation</t>
   </si>
   <si>
-    <t>manufacture</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>Satellite Accounts</t>
-  </si>
-  <si>
-    <t>primary</t>
   </si>
   <si>
     <t>Type</t>
@@ -602,13 +590,7 @@
     <t>Transport equipment</t>
   </si>
   <si>
-    <t>Agriculture &amp; fishing</t>
-  </si>
-  <si>
     <t>Mining</t>
-  </si>
-  <si>
-    <t>High-tech</t>
   </si>
   <si>
     <t>Other</t>
@@ -617,25 +599,49 @@
     <t>Utilities</t>
   </si>
   <si>
-    <t>Wholesale &amp; retail</t>
+    <t>Mining - commodity</t>
   </si>
   <si>
-    <t>Transport</t>
+    <t>Food, beverages &amp; tobacco - commodity</t>
   </si>
   <si>
-    <t>Leisure</t>
+    <t>Textile &amp; leather - commodity</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>Wood &amp; wood products - commodity</t>
   </si>
   <si>
-    <t>Finance &amp; Consultancy</t>
+    <t>Paper, pulp &amp; printing - commodity</t>
   </si>
   <si>
-    <t>Research &amp; Education</t>
+    <t>Chemicals - commodity</t>
   </si>
   <si>
-    <t>Health</t>
+    <t>Non-metallic minerals - commodity</t>
+  </si>
+  <si>
+    <t>Metals - commodity</t>
+  </si>
+  <si>
+    <t>Other - commodity</t>
+  </si>
+  <si>
+    <t>Machinery - commodity</t>
+  </si>
+  <si>
+    <t>Transport equipment - commodity</t>
+  </si>
+  <si>
+    <t>Utilities - commodity</t>
+  </si>
+  <si>
+    <t>Construction - commodity</t>
+  </si>
+  <si>
+    <t>Other sectors - commodity</t>
+  </si>
+  <si>
+    <t>Other sectors</t>
   </si>
 </sst>
 </file>
@@ -1521,13 +1527,13 @@
         <v>Activities</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:139" x14ac:dyDescent="0.3">
@@ -1929,13 +1935,13 @@
         <v>Activities of extraterritorial organisations and bodies</v>
       </c>
       <c r="EG2" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="EH2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1944,211 +1950,211 @@
         <v>Macro Sectors</v>
       </c>
       <c r="F3" s="1" t="str">
-        <v>primary</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="G3" s="1" t="str">
-        <v>primary</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v>primary</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="I3" s="1" t="str">
-        <v>primary</v>
+        <v>Mining - commodity</v>
       </c>
       <c r="J3" s="1" t="str">
-        <v>primary</v>
+        <v>Food, beverages &amp; tobacco - commodity</v>
       </c>
       <c r="K3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Textile &amp; leather - commodity</v>
       </c>
       <c r="L3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Wood &amp; wood products - commodity</v>
       </c>
       <c r="M3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Paper, pulp &amp; printing - commodity</v>
       </c>
       <c r="N3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Paper, pulp &amp; printing - commodity</v>
       </c>
       <c r="O3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Chemicals - commodity</v>
       </c>
       <c r="P3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Chemicals - commodity</v>
       </c>
       <c r="Q3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Chemicals - commodity</v>
       </c>
       <c r="R3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Non-metallic minerals - commodity</v>
       </c>
       <c r="S3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Non-metallic minerals - commodity</v>
       </c>
       <c r="T3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Metals - commodity</v>
       </c>
       <c r="U3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Metals - commodity</v>
       </c>
       <c r="V3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Other - commodity</v>
       </c>
       <c r="W3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Other - commodity</v>
       </c>
       <c r="X3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Machinery - commodity</v>
       </c>
       <c r="Y3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Transport equipment - commodity</v>
       </c>
       <c r="Z3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Transport equipment - commodity</v>
       </c>
       <c r="AA3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Other - commodity</v>
       </c>
       <c r="AB3" s="1" t="str">
-        <v>service</v>
+        <v>Other - commodity</v>
       </c>
       <c r="AC3" s="1" t="str">
-        <v>energy</v>
+        <v>Utilities - commodity</v>
       </c>
       <c r="AD3" s="1" t="str">
-        <v>service</v>
+        <v>Utilities - commodity</v>
       </c>
       <c r="AE3" s="1" t="str">
-        <v>service</v>
+        <v>Utilities - commodity</v>
       </c>
       <c r="AF3" s="1" t="str">
-        <v>service</v>
+        <v>Construction - commodity</v>
       </c>
       <c r="AG3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AH3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AI3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AJ3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AK3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AL3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AM3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AN3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AO3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AP3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AQ3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AR3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AS3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AT3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AU3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AV3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AW3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AX3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AY3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AZ3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BA3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BB3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BC3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BD3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BE3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BF3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BG3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BH3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BI3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BJ3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BK3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BL3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BM3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BN3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BO3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BP3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BQ3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BR3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BS3" s="1" t="str">
         <v>Margins</v>
       </c>
       <c r="BT3" s="1" t="str">
-        <v>Agriculture &amp; fishing</v>
+        <v>Other sectors</v>
       </c>
       <c r="BU3" s="1" t="str">
-        <v>Agriculture &amp; fishing</v>
+        <v>Other sectors</v>
       </c>
       <c r="BV3" s="1" t="str">
-        <v>Agriculture &amp; fishing</v>
+        <v>Other sectors</v>
       </c>
       <c r="BW3" s="1" t="str">
         <v>Mining</v>
@@ -2190,10 +2196,10 @@
         <v>Metals</v>
       </c>
       <c r="CJ3" s="1" t="str">
-        <v>High-tech</v>
+        <v>Other</v>
       </c>
       <c r="CK3" s="1" t="str">
-        <v>High-tech</v>
+        <v>Other</v>
       </c>
       <c r="CL3" s="1" t="str">
         <v>Machinery</v>
@@ -2208,7 +2214,7 @@
         <v>Other</v>
       </c>
       <c r="CP3" s="1" t="str">
-        <v>High-tech</v>
+        <v>Other</v>
       </c>
       <c r="CQ3" s="1" t="str">
         <v>Utilities</v>
@@ -2223,127 +2229,127 @@
         <v>Construction</v>
       </c>
       <c r="CU3" s="1" t="str">
-        <v>Wholesale &amp; retail</v>
+        <v>Other sectors</v>
       </c>
       <c r="CV3" s="1" t="str">
-        <v>Wholesale &amp; retail</v>
+        <v>Other sectors</v>
       </c>
       <c r="CW3" s="1" t="str">
-        <v>Wholesale &amp; retail</v>
+        <v>Other sectors</v>
       </c>
       <c r="CX3" s="1" t="str">
-        <v>Transport</v>
+        <v>Other sectors</v>
       </c>
       <c r="CY3" s="1" t="str">
-        <v>Transport</v>
+        <v>Other sectors</v>
       </c>
       <c r="CZ3" s="1" t="str">
-        <v>Transport</v>
+        <v>Other sectors</v>
       </c>
       <c r="DA3" s="1" t="str">
-        <v>Transport</v>
+        <v>Other sectors</v>
       </c>
       <c r="DB3" s="1" t="str">
-        <v>Transport</v>
+        <v>Other sectors</v>
       </c>
       <c r="DC3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="DD3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="DE3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="DF3" s="1" t="str">
-        <v>IT</v>
+        <v>Other sectors</v>
       </c>
       <c r="DG3" s="1" t="str">
-        <v>IT</v>
+        <v>Other sectors</v>
       </c>
       <c r="DH3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DI3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DJ3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DK3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DL3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DM3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DN3" s="1" t="str">
-        <v>Research &amp; Education</v>
+        <v>Other sectors</v>
       </c>
       <c r="DO3" s="1" t="str">
-        <v>Research &amp; Education</v>
+        <v>Other sectors</v>
       </c>
       <c r="DP3" s="1" t="str">
-        <v>Research &amp; Education</v>
+        <v>Other sectors</v>
       </c>
       <c r="DQ3" s="1" t="str">
-        <v>Research &amp; Education</v>
+        <v>Other sectors</v>
       </c>
       <c r="DR3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="DS3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="DT3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="DU3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DV3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="DW3" s="1" t="str">
-        <v>Research &amp; Education</v>
+        <v>Other sectors</v>
       </c>
       <c r="DX3" s="1" t="str">
-        <v>Health</v>
+        <v>Other sectors</v>
       </c>
       <c r="DY3" s="1" t="str">
-        <v>Health</v>
+        <v>Other sectors</v>
       </c>
       <c r="DZ3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="EA3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="EB3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="EC3" s="1" t="str">
-        <v>IT</v>
+        <v>Other sectors</v>
       </c>
       <c r="ED3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="EE3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="EF3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="EG3" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2748,13 +2754,13 @@
         <v>M EUR</v>
       </c>
       <c r="EG4" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="EH4" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="EI4" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3161,33 +3167,33 @@
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -3594,16 +3600,16 @@
     </row>
     <row r="8" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -4010,16 +4016,16 @@
     </row>
     <row r="9" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
@@ -4426,16 +4432,16 @@
     </row>
     <row r="10" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -4842,16 +4848,16 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
@@ -5258,16 +5264,16 @@
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
@@ -5674,16 +5680,16 @@
     </row>
     <row r="13" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F13" s="9">
         <v>0</v>
@@ -6090,16 +6096,16 @@
     </row>
     <row r="14" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -6506,16 +6512,16 @@
     </row>
     <row r="15" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -6922,16 +6928,16 @@
     </row>
     <row r="16" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -7338,16 +7344,16 @@
     </row>
     <row r="17" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F17" s="9">
         <v>0</v>
@@ -7754,16 +7760,16 @@
     </row>
     <row r="18" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
@@ -8170,16 +8176,16 @@
     </row>
     <row r="19" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F19" s="9">
         <v>0</v>
@@ -8586,16 +8592,16 @@
     </row>
     <row r="20" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F20" s="9">
         <v>0</v>
@@ -9002,16 +9008,16 @@
     </row>
     <row r="21" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F21" s="9">
         <v>0</v>
@@ -9418,16 +9424,16 @@
     </row>
     <row r="22" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F22" s="9">
         <v>0</v>
@@ -9834,16 +9840,16 @@
     </row>
     <row r="23" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F23" s="9">
         <v>0</v>
@@ -10250,16 +10256,16 @@
     </row>
     <row r="24" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F24" s="9">
         <v>0</v>
@@ -10666,16 +10672,16 @@
     </row>
     <row r="25" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F25" s="9">
         <v>0</v>
@@ -11082,16 +11088,16 @@
     </row>
     <row r="26" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F26" s="9">
         <v>0</v>
@@ -11498,16 +11504,16 @@
     </row>
     <row r="27" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F27" s="9">
         <v>0</v>
@@ -11914,16 +11920,16 @@
     </row>
     <row r="28" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F28" s="9">
         <v>0</v>
@@ -12330,16 +12336,16 @@
     </row>
     <row r="29" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F29" s="9">
         <v>0</v>
@@ -12746,16 +12752,16 @@
     </row>
     <row r="30" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F30" s="9">
         <v>0</v>
@@ -13162,16 +13168,16 @@
     </row>
     <row r="31" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F31" s="9">
         <v>0</v>
@@ -13578,16 +13584,16 @@
     </row>
     <row r="32" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -13994,16 +14000,16 @@
     </row>
     <row r="33" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F33" s="9">
         <v>0</v>
@@ -14410,16 +14416,16 @@
     </row>
     <row r="34" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F34" s="9">
         <v>0</v>
@@ -14826,16 +14832,16 @@
     </row>
     <row r="35" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F35" s="9">
         <v>0</v>
@@ -15242,16 +15248,16 @@
     </row>
     <row r="36" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F36" s="9">
         <v>0</v>
@@ -15658,16 +15664,16 @@
     </row>
     <row r="37" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F37" s="9">
         <v>0</v>
@@ -16074,16 +16080,16 @@
     </row>
     <row r="38" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F38" s="9">
         <v>0</v>
@@ -16490,16 +16496,16 @@
     </row>
     <row r="39" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F39" s="9">
         <v>0</v>
@@ -16906,16 +16912,16 @@
     </row>
     <row r="40" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F40" s="9">
         <v>0</v>
@@ -17322,16 +17328,16 @@
     </row>
     <row r="41" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F41" s="9">
         <v>0</v>
@@ -17738,16 +17744,16 @@
     </row>
     <row r="42" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F42" s="9">
         <v>0</v>
@@ -18154,16 +18160,16 @@
     </row>
     <row r="43" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F43" s="9">
         <v>0</v>
@@ -18570,16 +18576,16 @@
     </row>
     <row r="44" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F44" s="9">
         <v>0</v>
@@ -18986,16 +18992,16 @@
     </row>
     <row r="45" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -19402,16 +19408,16 @@
     </row>
     <row r="46" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F46" s="9">
         <v>0</v>
@@ -19818,16 +19824,16 @@
     </row>
     <row r="47" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -20234,16 +20240,16 @@
     </row>
     <row r="48" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F48" s="9">
         <v>0</v>
@@ -20650,16 +20656,16 @@
     </row>
     <row r="49" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F49" s="9">
         <v>0</v>
@@ -21066,16 +21072,16 @@
     </row>
     <row r="50" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F50" s="9">
         <v>0</v>
@@ -21482,16 +21488,16 @@
     </row>
     <row r="51" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F51" s="9">
         <v>0</v>
@@ -21898,16 +21904,16 @@
     </row>
     <row r="52" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -22314,16 +22320,16 @@
     </row>
     <row r="53" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F53" s="9">
         <v>0</v>
@@ -22730,16 +22736,16 @@
     </row>
     <row r="54" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F54" s="9">
         <v>0</v>
@@ -23146,16 +23152,16 @@
     </row>
     <row r="55" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F55" s="9">
         <v>0</v>
@@ -23562,16 +23568,16 @@
     </row>
     <row r="56" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F56" s="9">
         <v>0</v>
@@ -23978,16 +23984,16 @@
     </row>
     <row r="57" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F57" s="9">
         <v>0</v>
@@ -24394,16 +24400,16 @@
     </row>
     <row r="58" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F58" s="9">
         <v>0</v>
@@ -24810,16 +24816,16 @@
     </row>
     <row r="59" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F59" s="9">
         <v>0</v>
@@ -25226,16 +25232,16 @@
     </row>
     <row r="60" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F60" s="9">
         <v>0</v>
@@ -25642,16 +25648,16 @@
     </row>
     <row r="61" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F61" s="9">
         <v>0</v>
@@ -26058,16 +26064,16 @@
     </row>
     <row r="62" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F62" s="9">
         <v>0</v>
@@ -26474,16 +26480,16 @@
     </row>
     <row r="63" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F63" s="9">
         <v>0</v>
@@ -26890,16 +26896,16 @@
     </row>
     <row r="64" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -27306,16 +27312,16 @@
     </row>
     <row r="65" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F65" s="9">
         <v>0</v>
@@ -27722,16 +27728,16 @@
     </row>
     <row r="66" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F66" s="9">
         <v>0</v>
@@ -28138,16 +28144,16 @@
     </row>
     <row r="67" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -28554,16 +28560,16 @@
     </row>
     <row r="68" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F68" s="9">
         <v>0</v>
@@ -28970,16 +28976,16 @@
     </row>
     <row r="69" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F69" s="9">
         <v>0</v>
@@ -29386,16 +29392,16 @@
     </row>
     <row r="70" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F70" s="9">
         <v>0</v>
@@ -29802,16 +29808,16 @@
     </row>
     <row r="71" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F71" s="9">
         <v>0</v>
@@ -30227,7 +30233,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -30634,16 +30640,16 @@
     </row>
     <row r="73" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F73" s="9">
         <v>48555</v>
@@ -31050,16 +31056,16 @@
     </row>
     <row r="74" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
@@ -31466,16 +31472,16 @@
     </row>
     <row r="75" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F75" s="9">
         <v>0</v>
@@ -31882,16 +31888,16 @@
     </row>
     <row r="76" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -32298,16 +32304,16 @@
     </row>
     <row r="77" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F77" s="9">
         <v>0</v>
@@ -32714,16 +32720,16 @@
     </row>
     <row r="78" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F78" s="9">
         <v>0</v>
@@ -33130,16 +33136,16 @@
     </row>
     <row r="79" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F79" s="9">
         <v>0</v>
@@ -33546,16 +33552,16 @@
     </row>
     <row r="80" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
@@ -33962,16 +33968,16 @@
     </row>
     <row r="81" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F81" s="9">
         <v>0</v>
@@ -34378,16 +34384,16 @@
     </row>
     <row r="82" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -34794,16 +34800,16 @@
     </row>
     <row r="83" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F83" s="9">
         <v>0</v>
@@ -35210,16 +35216,16 @@
     </row>
     <row r="84" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F84" s="9">
         <v>0</v>
@@ -35626,16 +35632,16 @@
     </row>
     <row r="85" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F85" s="9">
         <v>0</v>
@@ -36042,16 +36048,16 @@
     </row>
     <row r="86" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F86" s="9">
         <v>0</v>
@@ -36458,16 +36464,16 @@
     </row>
     <row r="87" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F87" s="9">
         <v>0</v>
@@ -36874,16 +36880,16 @@
     </row>
     <row r="88" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F88" s="9">
         <v>0</v>
@@ -37290,16 +37296,16 @@
     </row>
     <row r="89" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F89" s="9">
         <v>0</v>
@@ -37706,16 +37712,16 @@
     </row>
     <row r="90" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F90" s="9">
         <v>0</v>
@@ -38122,16 +38128,16 @@
     </row>
     <row r="91" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F91" s="9">
         <v>0</v>
@@ -38538,16 +38544,16 @@
     </row>
     <row r="92" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F92" s="9">
         <v>0</v>
@@ -38954,16 +38960,16 @@
     </row>
     <row r="93" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F93" s="9">
         <v>0</v>
@@ -39370,16 +39376,16 @@
     </row>
     <row r="94" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
@@ -39786,16 +39792,16 @@
     </row>
     <row r="95" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F95" s="9">
         <v>0</v>
@@ -40202,16 +40208,16 @@
     </row>
     <row r="96" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F96" s="9">
         <v>0</v>
@@ -40618,16 +40624,16 @@
     </row>
     <row r="97" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F97" s="9">
         <v>0</v>
@@ -41034,16 +41040,16 @@
     </row>
     <row r="98" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F98" s="9">
         <v>0</v>
@@ -41450,16 +41456,16 @@
     </row>
     <row r="99" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F99" s="9">
         <v>0</v>
@@ -41866,16 +41872,16 @@
     </row>
     <row r="100" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F100" s="9">
         <v>0</v>
@@ -42282,16 +42288,16 @@
     </row>
     <row r="101" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F101" s="9">
         <v>727.8</v>
@@ -42698,16 +42704,16 @@
     </row>
     <row r="102" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F102" s="9">
         <v>199</v>
@@ -43114,16 +43120,16 @@
     </row>
     <row r="103" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F103" s="9">
         <v>0</v>
@@ -43530,16 +43536,16 @@
     </row>
     <row r="104" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F104" s="9">
         <v>0</v>
@@ -43946,16 +43952,16 @@
     </row>
     <row r="105" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F105" s="9">
         <v>0</v>
@@ -44362,16 +44368,16 @@
     </row>
     <row r="106" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
@@ -44778,16 +44784,16 @@
     </row>
     <row r="107" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F107" s="9">
         <v>0</v>
@@ -45194,16 +45200,16 @@
     </row>
     <row r="108" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F108" s="9">
         <v>0</v>
@@ -45610,16 +45616,16 @@
     </row>
     <row r="109" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F109" s="9">
         <v>0</v>
@@ -46026,16 +46032,16 @@
     </row>
     <row r="110" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F110" s="9">
         <v>0</v>
@@ -46442,16 +46448,16 @@
     </row>
     <row r="111" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F111" s="9">
         <v>0</v>
@@ -46858,16 +46864,16 @@
     </row>
     <row r="112" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F112" s="9">
         <v>0</v>
@@ -47274,16 +47280,16 @@
     </row>
     <row r="113" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F113" s="9">
         <v>0</v>
@@ -47690,16 +47696,16 @@
     </row>
     <row r="114" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F114" s="9">
         <v>0</v>
@@ -48106,16 +48112,16 @@
     </row>
     <row r="115" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F115" s="9">
         <v>0</v>
@@ -48522,16 +48528,16 @@
     </row>
     <row r="116" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F116" s="9">
         <v>0</v>
@@ -48938,16 +48944,16 @@
     </row>
     <row r="117" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F117" s="9">
         <v>0</v>
@@ -49354,16 +49360,16 @@
     </row>
     <row r="118" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F118" s="9">
         <v>0</v>
@@ -49770,16 +49776,16 @@
     </row>
     <row r="119" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F119" s="9">
         <v>0</v>
@@ -50186,16 +50192,16 @@
     </row>
     <row r="120" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F120" s="9">
         <v>0</v>
@@ -50602,16 +50608,16 @@
     </row>
     <row r="121" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F121" s="9">
         <v>0</v>
@@ -51018,16 +51024,16 @@
     </row>
     <row r="122" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F122" s="9">
         <v>0</v>
@@ -51434,16 +51440,16 @@
     </row>
     <row r="123" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F123" s="9">
         <v>0</v>
@@ -51850,16 +51856,16 @@
     </row>
     <row r="124" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F124" s="9">
         <v>0</v>
@@ -52266,16 +52272,16 @@
     </row>
     <row r="125" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F125" s="9">
         <v>0</v>
@@ -52682,16 +52688,16 @@
     </row>
     <row r="126" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F126" s="9">
         <v>0</v>
@@ -53098,16 +53104,16 @@
     </row>
     <row r="127" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F127" s="9">
         <v>0</v>
@@ -53514,16 +53520,16 @@
     </row>
     <row r="128" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F128" s="9">
         <v>0</v>
@@ -53930,16 +53936,16 @@
     </row>
     <row r="129" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F129" s="9">
         <v>0</v>
@@ -54346,16 +54352,16 @@
     </row>
     <row r="130" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
@@ -54762,16 +54768,16 @@
     </row>
     <row r="131" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F131" s="9">
         <v>2.5</v>
@@ -55178,16 +55184,16 @@
     </row>
     <row r="132" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F132" s="9">
         <v>0</v>
@@ -55594,16 +55600,16 @@
     </row>
     <row r="133" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F133" s="9">
         <v>0</v>
@@ -56010,16 +56016,16 @@
     </row>
     <row r="134" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F134" s="9">
         <v>0</v>
@@ -56426,16 +56432,16 @@
     </row>
     <row r="135" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F135" s="9">
         <v>0</v>
@@ -56842,16 +56848,16 @@
     </row>
     <row r="136" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
@@ -57258,16 +57264,16 @@
     </row>
     <row r="137" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F137" s="9">
         <v>0</v>
@@ -57674,16 +57680,16 @@
     </row>
     <row r="138" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F138" s="9">
         <v>0</v>
@@ -58090,16 +58096,16 @@
     </row>
     <row r="139" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F139" s="9">
         <v>0</v>
@@ -58506,16 +58512,16 @@
     </row>
     <row r="140" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F140" s="9">
         <v>0</v>
@@ -58922,16 +58928,16 @@
     </row>
     <row r="141" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F141" s="9">
         <v>0</v>
@@ -59338,16 +59344,16 @@
     </row>
     <row r="142" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
@@ -59754,16 +59760,16 @@
     </row>
     <row r="143" spans="1:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F143" s="9">
         <v>13370.1</v>
@@ -60170,16 +60176,16 @@
     </row>
     <row r="144" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E144" s="14"/>
       <c r="F144" s="9">
@@ -60587,16 +60593,16 @@
     </row>
     <row r="145" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="9">
@@ -61004,16 +61010,16 @@
     </row>
     <row r="146" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E146" s="14"/>
       <c r="F146" s="9">
@@ -61421,16 +61427,16 @@
     </row>
     <row r="147" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E147" s="14"/>
       <c r="F147" s="9">
@@ -61838,16 +61844,16 @@
     </row>
     <row r="148" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E148" s="14"/>
       <c r="F148" s="9">
@@ -62255,16 +62261,16 @@
     </row>
     <row r="149" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E149" s="14"/>
       <c r="F149" s="9">
@@ -62672,16 +62678,16 @@
     </row>
     <row r="150" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E150" s="14"/>
       <c r="F150" s="9">
@@ -63089,16 +63095,16 @@
     </row>
     <row r="151" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E151" s="14"/>
       <c r="F151" s="9">
@@ -63506,16 +63512,16 @@
     </row>
     <row r="152" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="9">
@@ -63923,16 +63929,16 @@
     </row>
     <row r="153" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E153" s="14"/>
       <c r="F153" s="9">
@@ -64340,16 +64346,16 @@
     </row>
     <row r="154" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E154" s="14"/>
       <c r="F154" s="9">
